--- a/biology/Botanique/Parc_Otto_Karhi/Parc_Otto_Karhi.xlsx
+++ b/biology/Botanique/Parc_Otto_Karhi/Parc_Otto_Karhi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Otto Karhi (finnois : Otto Karhin puisto) est un parc du fossé situé dans le quartier de Pokkinen à Oulu en Finlande. 
 </t>
@@ -511,15 +523,17 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone du parc est déjà en cours de rénovation dans les années 1830. 
 La premier site à être rénové est le parc Appelgren.
-En 1907, le nom du parc devient Palokunnanpuisto (finnois : parc des sapeurs-Pompiers), ce qui lui donne son surnom populaire d'aujourd'hui, celui de Letkunpuisto (finnois : parc du tuyau)[1].
-En 1956, il est officiellement rebaptisé parc Otto Karhi en l'honneur d'Otto Karhi, membre influent de la société coopérative d'Oulu et homme politique[2].
+En 1907, le nom du parc devient Palokunnanpuisto (finnois : parc des sapeurs-Pompiers), ce qui lui donne son surnom populaire d'aujourd'hui, celui de Letkunpuisto (finnois : parc du tuyau).
+En 1956, il est officiellement rebaptisé parc Otto Karhi en l'honneur d'Otto Karhi, membre influent de la société coopérative d'Oulu et homme politique.
 En 2011, le parc Otto Karhi fait peau neuve à la suite des travaux de rénovation. 
 En 2014, le café Makia ouvre en remplacement du kiosque traditionnel.
-Le pont traversant le fossé est restauré dans son style d'origine[1].
+Le pont traversant le fossé est restauré dans son style d'origine.
 Le parc Otto Karhi, situé entre le parc Snellman et le parc de Vaara, est le parc central d'Oulu.
 </t>
         </is>
@@ -549,7 +563,9 @@
           <t>Vues du parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le café Makia.
